--- a/xlsx/冷战_intext.xlsx
+++ b/xlsx/冷战_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2355">
   <si>
     <t>冷战</t>
   </si>
@@ -29,7 +29,7 @@
     <t>柏林圍牆</t>
   </si>
   <si>
-    <t>政策_政策_美國_冷战</t>
+    <t>体育运动_体育运动_纳粹德国_冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%BE%B7%E5%9C%8B</t>
@@ -2708,6 +2708,24 @@
     <t>失敗國家</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B5%B7%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>台海問題</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>朝鲜半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E4%BF%84%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>美俄關係</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E7%8E%8B%E5%9B%BD</t>
   </si>
   <si>
@@ -3432,6 +3450,12 @@
   </si>
   <si>
     <t>衣索比亞內戰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E5%BC%80%E6%94%BE</t>
+  </si>
+  <si>
+    <t>改革开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E8%B6%8A%E6%88%B0%E7%88%AD</t>
@@ -7404,7 +7428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1245"/>
+  <dimension ref="A1:I1249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8473,7 +8497,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -8531,7 +8555,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
@@ -21088,7 +21112,7 @@
         <v>900</v>
       </c>
       <c r="G472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H472" t="s">
         <v>4</v>
@@ -21291,7 +21315,7 @@
         <v>914</v>
       </c>
       <c r="G479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H479" t="s">
         <v>4</v>
@@ -21378,7 +21402,7 @@
         <v>920</v>
       </c>
       <c r="G482" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H482" t="s">
         <v>4</v>
@@ -21436,7 +21460,7 @@
         <v>924</v>
       </c>
       <c r="G484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H484" t="s">
         <v>4</v>
@@ -21465,7 +21489,7 @@
         <v>926</v>
       </c>
       <c r="G485" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H485" t="s">
         <v>4</v>
@@ -21494,7 +21518,7 @@
         <v>928</v>
       </c>
       <c r="G486" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H486" t="s">
         <v>4</v>
@@ -21552,7 +21576,7 @@
         <v>932</v>
       </c>
       <c r="G488" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H488" t="s">
         <v>4</v>
@@ -21581,7 +21605,7 @@
         <v>934</v>
       </c>
       <c r="G489" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H489" t="s">
         <v>4</v>
@@ -21610,7 +21634,7 @@
         <v>936</v>
       </c>
       <c r="G490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H490" t="s">
         <v>4</v>
@@ -21639,7 +21663,7 @@
         <v>938</v>
       </c>
       <c r="G491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H491" t="s">
         <v>4</v>
@@ -21697,7 +21721,7 @@
         <v>942</v>
       </c>
       <c r="G493" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H493" t="s">
         <v>4</v>
@@ -21726,7 +21750,7 @@
         <v>944</v>
       </c>
       <c r="G494" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H494" t="s">
         <v>4</v>
@@ -21784,7 +21808,7 @@
         <v>948</v>
       </c>
       <c r="G496" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H496" t="s">
         <v>4</v>
@@ -21929,7 +21953,7 @@
         <v>958</v>
       </c>
       <c r="G501" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H501" t="s">
         <v>4</v>
@@ -21987,7 +22011,7 @@
         <v>962</v>
       </c>
       <c r="G503" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H503" t="s">
         <v>4</v>
@@ -22016,7 +22040,7 @@
         <v>964</v>
       </c>
       <c r="G504" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H504" t="s">
         <v>4</v>
@@ -22074,7 +22098,7 @@
         <v>968</v>
       </c>
       <c r="G506" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H506" t="s">
         <v>4</v>
@@ -22103,7 +22127,7 @@
         <v>970</v>
       </c>
       <c r="G507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H507" t="s">
         <v>4</v>
@@ -22567,7 +22591,7 @@
         <v>1002</v>
       </c>
       <c r="G523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H523" t="s">
         <v>4</v>
@@ -22590,10 +22614,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>293</v>
+        <v>1003</v>
       </c>
       <c r="F524" t="s">
-        <v>294</v>
+        <v>1004</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -22619,10 +22643,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F525" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -22648,13 +22672,13 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F526" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="G526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H526" t="s">
         <v>4</v>
@@ -22677,13 +22701,13 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1007</v>
+        <v>293</v>
       </c>
       <c r="F527" t="s">
-        <v>1008</v>
+        <v>294</v>
       </c>
       <c r="G527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H527" t="s">
         <v>4</v>
@@ -22741,7 +22765,7 @@
         <v>1012</v>
       </c>
       <c r="G529" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H529" t="s">
         <v>4</v>
@@ -22770,7 +22794,7 @@
         <v>1014</v>
       </c>
       <c r="G530" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H530" t="s">
         <v>4</v>
@@ -22793,10 +22817,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>475</v>
+        <v>1015</v>
       </c>
       <c r="F531" t="s">
-        <v>476</v>
+        <v>1016</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -22822,13 +22846,13 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>775</v>
+        <v>1017</v>
       </c>
       <c r="F532" t="s">
-        <v>776</v>
+        <v>1018</v>
       </c>
       <c r="G532" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H532" t="s">
         <v>4</v>
@@ -22851,10 +22875,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="F533" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -22880,10 +22904,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1017</v>
+        <v>475</v>
       </c>
       <c r="F534" t="s">
-        <v>1018</v>
+        <v>476</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -22909,10 +22933,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1019</v>
+        <v>775</v>
       </c>
       <c r="F535" t="s">
-        <v>1020</v>
+        <v>776</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -24098,10 +24122,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>721</v>
+        <v>1101</v>
       </c>
       <c r="F576" t="s">
-        <v>722</v>
+        <v>1102</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -24127,10 +24151,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>565</v>
+        <v>1103</v>
       </c>
       <c r="F577" t="s">
-        <v>566</v>
+        <v>1104</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -24156,13 +24180,13 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="F578" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="G578" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H578" t="s">
         <v>4</v>
@@ -24185,10 +24209,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1103</v>
+        <v>721</v>
       </c>
       <c r="F579" t="s">
-        <v>1104</v>
+        <v>722</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -24214,10 +24238,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1105</v>
+        <v>565</v>
       </c>
       <c r="F580" t="s">
-        <v>1106</v>
+        <v>566</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -24249,7 +24273,7 @@
         <v>1108</v>
       </c>
       <c r="G581" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H581" t="s">
         <v>4</v>
@@ -24423,7 +24447,7 @@
         <v>1120</v>
       </c>
       <c r="G587" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H587" t="s">
         <v>4</v>
@@ -24510,7 +24534,7 @@
         <v>1126</v>
       </c>
       <c r="G590" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H590" t="s">
         <v>4</v>
@@ -24562,10 +24586,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>721</v>
+        <v>1129</v>
       </c>
       <c r="F592" t="s">
-        <v>722</v>
+        <v>1130</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -24591,10 +24615,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="F593" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -24620,10 +24644,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="F594" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -24649,10 +24673,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1133</v>
+        <v>721</v>
       </c>
       <c r="F595" t="s">
-        <v>1134</v>
+        <v>722</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -24968,10 +24992,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>777</v>
+        <v>1155</v>
       </c>
       <c r="F606" t="s">
-        <v>778</v>
+        <v>1156</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -24997,13 +25021,13 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="F607" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="G607" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H607" t="s">
         <v>4</v>
@@ -25026,10 +25050,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>753</v>
+        <v>1159</v>
       </c>
       <c r="F608" t="s">
-        <v>754</v>
+        <v>1160</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -25055,10 +25079,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="F609" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -25084,10 +25108,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1159</v>
+        <v>777</v>
       </c>
       <c r="F610" t="s">
-        <v>1160</v>
+        <v>778</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -25113,13 +25137,13 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="F611" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="G611" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H611" t="s">
         <v>4</v>
@@ -25142,10 +25166,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1163</v>
+        <v>753</v>
       </c>
       <c r="F612" t="s">
-        <v>1164</v>
+        <v>754</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -25200,10 +25224,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>95</v>
+        <v>1167</v>
       </c>
       <c r="F614" t="s">
-        <v>96</v>
+        <v>1168</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -25229,10 +25253,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="F615" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -25258,10 +25282,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="F616" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -25287,10 +25311,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>49</v>
+        <v>1173</v>
       </c>
       <c r="F617" t="s">
-        <v>50</v>
+        <v>1174</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -25316,13 +25340,13 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="F618" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="G618" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H618" t="s">
         <v>4</v>
@@ -25345,10 +25369,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="F619" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -25374,10 +25398,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>759</v>
+        <v>1177</v>
       </c>
       <c r="F620" t="s">
-        <v>760</v>
+        <v>1178</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -25403,13 +25427,13 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1173</v>
+        <v>49</v>
       </c>
       <c r="F621" t="s">
-        <v>1174</v>
+        <v>50</v>
       </c>
       <c r="G621" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H621" t="s">
         <v>4</v>
@@ -25432,13 +25456,13 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1175</v>
+        <v>51</v>
       </c>
       <c r="F622" t="s">
-        <v>1176</v>
+        <v>52</v>
       </c>
       <c r="G622" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H622" t="s">
         <v>4</v>
@@ -25461,10 +25485,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="F623" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -25490,10 +25514,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1007</v>
+        <v>759</v>
       </c>
       <c r="F624" t="s">
-        <v>1008</v>
+        <v>760</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -25519,13 +25543,13 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F625" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="G625" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H625" t="s">
         <v>4</v>
@@ -25548,10 +25572,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="F626" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -25577,10 +25601,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="F627" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -25606,10 +25630,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1185</v>
+        <v>1013</v>
       </c>
       <c r="F628" t="s">
-        <v>1186</v>
+        <v>1014</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -25635,13 +25659,13 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>855</v>
+        <v>1187</v>
       </c>
       <c r="F629" t="s">
-        <v>856</v>
+        <v>1188</v>
       </c>
       <c r="G629" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H629" t="s">
         <v>4</v>
@@ -25664,10 +25688,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="F630" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -25693,10 +25717,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="F631" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -25722,10 +25746,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="F632" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -25751,13 +25775,13 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="F633" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="G633" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H633" t="s">
         <v>4</v>
@@ -25780,13 +25804,13 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="F634" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="G634" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H634" t="s">
         <v>4</v>
@@ -25809,13 +25833,13 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="F635" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="G635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H635" t="s">
         <v>4</v>
@@ -25838,10 +25862,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="F636" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -25867,10 +25891,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1199</v>
+        <v>861</v>
       </c>
       <c r="F637" t="s">
-        <v>1200</v>
+        <v>862</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -25902,7 +25926,7 @@
         <v>1202</v>
       </c>
       <c r="G638" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H638" t="s">
         <v>4</v>
@@ -25983,13 +26007,13 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>857</v>
+        <v>1207</v>
       </c>
       <c r="F641" t="s">
-        <v>858</v>
+        <v>1208</v>
       </c>
       <c r="G641" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H641" t="s">
         <v>4</v>
@@ -26012,13 +26036,13 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="F642" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="G642" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H642" t="s">
         <v>4</v>
@@ -26041,10 +26065,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="F643" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="G643" t="n">
         <v>2</v>
@@ -26070,10 +26094,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="F644" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -26099,13 +26123,13 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1213</v>
+        <v>857</v>
       </c>
       <c r="F645" t="s">
-        <v>1214</v>
+        <v>858</v>
       </c>
       <c r="G645" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H645" t="s">
         <v>4</v>
@@ -26134,7 +26158,7 @@
         <v>1216</v>
       </c>
       <c r="G646" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H646" t="s">
         <v>4</v>
@@ -26279,7 +26303,7 @@
         <v>1226</v>
       </c>
       <c r="G651" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H651" t="s">
         <v>4</v>
@@ -26418,10 +26442,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>727</v>
+        <v>1235</v>
       </c>
       <c r="F656" t="s">
-        <v>728</v>
+        <v>1236</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -26447,10 +26471,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="F657" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -26476,10 +26500,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="F658" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -26505,10 +26529,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="F659" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -26534,10 +26558,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1241</v>
+        <v>727</v>
       </c>
       <c r="F660" t="s">
-        <v>1242</v>
+        <v>728</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -26627,7 +26651,7 @@
         <v>1248</v>
       </c>
       <c r="G663" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H663" t="s">
         <v>4</v>
@@ -26714,7 +26738,7 @@
         <v>1254</v>
       </c>
       <c r="G666" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H666" t="s">
         <v>4</v>
@@ -26743,7 +26767,7 @@
         <v>1256</v>
       </c>
       <c r="G667" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H667" t="s">
         <v>4</v>
@@ -26830,7 +26854,7 @@
         <v>1262</v>
       </c>
       <c r="G670" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H670" t="s">
         <v>4</v>
@@ -27004,7 +27028,7 @@
         <v>1274</v>
       </c>
       <c r="G676" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H676" t="s">
         <v>4</v>
@@ -27033,7 +27057,7 @@
         <v>1276</v>
       </c>
       <c r="G677" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H677" t="s">
         <v>4</v>
@@ -27062,7 +27086,7 @@
         <v>1278</v>
       </c>
       <c r="G678" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H678" t="s">
         <v>4</v>
@@ -27120,7 +27144,7 @@
         <v>1282</v>
       </c>
       <c r="G680" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H680" t="s">
         <v>4</v>
@@ -27149,7 +27173,7 @@
         <v>1284</v>
       </c>
       <c r="G681" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H681" t="s">
         <v>4</v>
@@ -27178,7 +27202,7 @@
         <v>1286</v>
       </c>
       <c r="G682" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H682" t="s">
         <v>4</v>
@@ -27236,7 +27260,7 @@
         <v>1290</v>
       </c>
       <c r="G684" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H684" t="s">
         <v>4</v>
@@ -27352,7 +27376,7 @@
         <v>1298</v>
       </c>
       <c r="G688" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H688" t="s">
         <v>4</v>
@@ -27491,10 +27515,10 @@
         <v>692</v>
       </c>
       <c r="E693" t="s">
-        <v>963</v>
+        <v>1307</v>
       </c>
       <c r="F693" t="s">
-        <v>964</v>
+        <v>1308</v>
       </c>
       <c r="G693" t="n">
         <v>1</v>
@@ -27520,10 +27544,10 @@
         <v>693</v>
       </c>
       <c r="E694" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="F694" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="G694" t="n">
         <v>1</v>
@@ -27549,10 +27573,10 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="F695" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="G695" t="n">
         <v>1</v>
@@ -27578,10 +27602,10 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>767</v>
+        <v>1313</v>
       </c>
       <c r="F696" t="s">
-        <v>768</v>
+        <v>1314</v>
       </c>
       <c r="G696" t="n">
         <v>1</v>
@@ -27607,10 +27631,10 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>1311</v>
+        <v>969</v>
       </c>
       <c r="F697" t="s">
-        <v>1312</v>
+        <v>970</v>
       </c>
       <c r="G697" t="n">
         <v>1</v>
@@ -27636,10 +27660,10 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="F698" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="G698" t="n">
         <v>1</v>
@@ -27665,13 +27689,13 @@
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="F699" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="G699" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H699" t="s">
         <v>4</v>
@@ -27694,10 +27718,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>1317</v>
+        <v>767</v>
       </c>
       <c r="F700" t="s">
-        <v>1318</v>
+        <v>768</v>
       </c>
       <c r="G700" t="n">
         <v>1</v>
@@ -27787,7 +27811,7 @@
         <v>1324</v>
       </c>
       <c r="G703" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H703" t="s">
         <v>4</v>
@@ -27897,10 +27921,10 @@
         <v>706</v>
       </c>
       <c r="E707" t="s">
-        <v>915</v>
+        <v>1331</v>
       </c>
       <c r="F707" t="s">
-        <v>916</v>
+        <v>1332</v>
       </c>
       <c r="G707" t="n">
         <v>1</v>
@@ -27926,10 +27950,10 @@
         <v>707</v>
       </c>
       <c r="E708" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="F708" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="G708" t="n">
         <v>1</v>
@@ -27955,13 +27979,13 @@
         <v>708</v>
       </c>
       <c r="E709" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="F709" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="G709" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H709" t="s">
         <v>4</v>
@@ -27984,10 +28008,10 @@
         <v>709</v>
       </c>
       <c r="E710" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="F710" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="G710" t="n">
         <v>1</v>
@@ -28013,10 +28037,10 @@
         <v>710</v>
       </c>
       <c r="E711" t="s">
-        <v>1337</v>
+        <v>921</v>
       </c>
       <c r="F711" t="s">
-        <v>1338</v>
+        <v>922</v>
       </c>
       <c r="G711" t="n">
         <v>1</v>
@@ -28077,7 +28101,7 @@
         <v>1342</v>
       </c>
       <c r="G713" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H713" t="s">
         <v>4</v>
@@ -28158,10 +28182,10 @@
         <v>715</v>
       </c>
       <c r="E716" t="s">
-        <v>1233</v>
+        <v>1347</v>
       </c>
       <c r="F716" t="s">
-        <v>1234</v>
+        <v>1348</v>
       </c>
       <c r="G716" t="n">
         <v>1</v>
@@ -28187,13 +28211,13 @@
         <v>716</v>
       </c>
       <c r="E717" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="F717" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G717" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H717" t="s">
         <v>4</v>
@@ -28216,13 +28240,13 @@
         <v>717</v>
       </c>
       <c r="E718" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="F718" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G718" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H718" t="s">
         <v>4</v>
@@ -28245,10 +28269,10 @@
         <v>718</v>
       </c>
       <c r="E719" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="F719" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G719" t="n">
         <v>1</v>
@@ -28274,10 +28298,10 @@
         <v>719</v>
       </c>
       <c r="E720" t="s">
-        <v>1353</v>
+        <v>1241</v>
       </c>
       <c r="F720" t="s">
-        <v>1354</v>
+        <v>1242</v>
       </c>
       <c r="G720" t="n">
         <v>1</v>
@@ -28309,7 +28333,7 @@
         <v>1356</v>
       </c>
       <c r="G721" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H721" t="s">
         <v>4</v>
@@ -28338,7 +28362,7 @@
         <v>1358</v>
       </c>
       <c r="G722" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H722" t="s">
         <v>4</v>
@@ -28448,10 +28472,10 @@
         <v>725</v>
       </c>
       <c r="E726" t="s">
-        <v>829</v>
+        <v>1365</v>
       </c>
       <c r="F726" t="s">
-        <v>830</v>
+        <v>1366</v>
       </c>
       <c r="G726" t="n">
         <v>1</v>
@@ -28477,10 +28501,10 @@
         <v>726</v>
       </c>
       <c r="E727" t="s">
-        <v>723</v>
+        <v>1367</v>
       </c>
       <c r="F727" t="s">
-        <v>724</v>
+        <v>1368</v>
       </c>
       <c r="G727" t="n">
         <v>1</v>
@@ -28506,10 +28530,10 @@
         <v>727</v>
       </c>
       <c r="E728" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="F728" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="G728" t="n">
         <v>1</v>
@@ -28535,13 +28559,13 @@
         <v>728</v>
       </c>
       <c r="E729" t="s">
-        <v>889</v>
+        <v>1371</v>
       </c>
       <c r="F729" t="s">
-        <v>890</v>
+        <v>1372</v>
       </c>
       <c r="G729" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H729" t="s">
         <v>4</v>
@@ -28564,10 +28588,10 @@
         <v>729</v>
       </c>
       <c r="E730" t="s">
-        <v>889</v>
+        <v>829</v>
       </c>
       <c r="F730" t="s">
-        <v>890</v>
+        <v>830</v>
       </c>
       <c r="G730" t="n">
         <v>1</v>
@@ -28593,10 +28617,10 @@
         <v>730</v>
       </c>
       <c r="E731" t="s">
-        <v>1367</v>
+        <v>723</v>
       </c>
       <c r="F731" t="s">
-        <v>1368</v>
+        <v>724</v>
       </c>
       <c r="G731" t="n">
         <v>1</v>
@@ -28622,13 +28646,13 @@
         <v>731</v>
       </c>
       <c r="E732" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="F732" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="G732" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="H732" t="s">
         <v>4</v>
@@ -28651,13 +28675,13 @@
         <v>732</v>
       </c>
       <c r="E733" t="s">
-        <v>1371</v>
+        <v>889</v>
       </c>
       <c r="F733" t="s">
-        <v>1372</v>
+        <v>890</v>
       </c>
       <c r="G733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H733" t="s">
         <v>4</v>
@@ -28680,13 +28704,13 @@
         <v>733</v>
       </c>
       <c r="E734" t="s">
-        <v>1373</v>
+        <v>889</v>
       </c>
       <c r="F734" t="s">
-        <v>1374</v>
+        <v>890</v>
       </c>
       <c r="G734" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H734" t="s">
         <v>4</v>
@@ -28744,7 +28768,7 @@
         <v>1378</v>
       </c>
       <c r="G736" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H736" t="s">
         <v>4</v>
@@ -28802,7 +28826,7 @@
         <v>1382</v>
       </c>
       <c r="G738" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H738" t="s">
         <v>4</v>
@@ -28860,7 +28884,7 @@
         <v>1386</v>
       </c>
       <c r="G740" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H740" t="s">
         <v>4</v>
@@ -28947,7 +28971,7 @@
         <v>1392</v>
       </c>
       <c r="G743" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H743" t="s">
         <v>4</v>
@@ -29063,7 +29087,7 @@
         <v>1400</v>
       </c>
       <c r="G747" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H747" t="s">
         <v>4</v>
@@ -29092,7 +29116,7 @@
         <v>1402</v>
       </c>
       <c r="G748" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H748" t="s">
         <v>4</v>
@@ -29121,7 +29145,7 @@
         <v>1404</v>
       </c>
       <c r="G749" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H749" t="s">
         <v>4</v>
@@ -29150,7 +29174,7 @@
         <v>1406</v>
       </c>
       <c r="G750" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H750" t="s">
         <v>4</v>
@@ -29208,7 +29232,7 @@
         <v>1410</v>
       </c>
       <c r="G752" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H752" t="s">
         <v>4</v>
@@ -29237,7 +29261,7 @@
         <v>1412</v>
       </c>
       <c r="G753" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H753" t="s">
         <v>4</v>
@@ -29324,7 +29348,7 @@
         <v>1418</v>
       </c>
       <c r="G756" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H756" t="s">
         <v>4</v>
@@ -29382,7 +29406,7 @@
         <v>1422</v>
       </c>
       <c r="G758" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H758" t="s">
         <v>4</v>
@@ -29440,7 +29464,7 @@
         <v>1426</v>
       </c>
       <c r="G760" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H760" t="s">
         <v>4</v>
@@ -29469,7 +29493,7 @@
         <v>1428</v>
       </c>
       <c r="G761" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H761" t="s">
         <v>4</v>
@@ -29550,13 +29574,13 @@
         <v>763</v>
       </c>
       <c r="E764" t="s">
-        <v>889</v>
+        <v>1433</v>
       </c>
       <c r="F764" t="s">
-        <v>890</v>
+        <v>1434</v>
       </c>
       <c r="G764" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H764" t="s">
         <v>4</v>
@@ -29579,13 +29603,13 @@
         <v>764</v>
       </c>
       <c r="E765" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="F765" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="G765" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H765" t="s">
         <v>4</v>
@@ -29608,13 +29632,13 @@
         <v>765</v>
       </c>
       <c r="E766" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="F766" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="G766" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H766" t="s">
         <v>4</v>
@@ -29637,13 +29661,13 @@
         <v>766</v>
       </c>
       <c r="E767" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="F767" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="G767" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H767" t="s">
         <v>4</v>
@@ -29666,10 +29690,10 @@
         <v>767</v>
       </c>
       <c r="E768" t="s">
-        <v>1439</v>
+        <v>889</v>
       </c>
       <c r="F768" t="s">
-        <v>1440</v>
+        <v>890</v>
       </c>
       <c r="G768" t="n">
         <v>1</v>
@@ -29730,7 +29754,7 @@
         <v>1444</v>
       </c>
       <c r="G770" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H770" t="s">
         <v>4</v>
@@ -29759,7 +29783,7 @@
         <v>1446</v>
       </c>
       <c r="G771" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H771" t="s">
         <v>4</v>
@@ -29846,7 +29870,7 @@
         <v>1452</v>
       </c>
       <c r="G774" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H774" t="s">
         <v>4</v>
@@ -29875,7 +29899,7 @@
         <v>1454</v>
       </c>
       <c r="G775" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H775" t="s">
         <v>4</v>
@@ -29904,7 +29928,7 @@
         <v>1456</v>
       </c>
       <c r="G776" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H776" t="s">
         <v>4</v>
@@ -29962,7 +29986,7 @@
         <v>1460</v>
       </c>
       <c r="G778" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H778" t="s">
         <v>4</v>
@@ -29991,7 +30015,7 @@
         <v>1462</v>
       </c>
       <c r="G779" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H779" t="s">
         <v>4</v>
@@ -30020,7 +30044,7 @@
         <v>1464</v>
       </c>
       <c r="G780" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H780" t="s">
         <v>4</v>
@@ -30078,7 +30102,7 @@
         <v>1468</v>
       </c>
       <c r="G782" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H782" t="s">
         <v>4</v>
@@ -30194,7 +30218,7 @@
         <v>1476</v>
       </c>
       <c r="G786" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H786" t="s">
         <v>4</v>
@@ -30217,10 +30241,10 @@
         <v>786</v>
       </c>
       <c r="E787" t="s">
-        <v>1447</v>
+        <v>1477</v>
       </c>
       <c r="F787" t="s">
-        <v>1448</v>
+        <v>1478</v>
       </c>
       <c r="G787" t="n">
         <v>1</v>
@@ -30246,13 +30270,13 @@
         <v>787</v>
       </c>
       <c r="E788" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="F788" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="G788" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H788" t="s">
         <v>4</v>
@@ -30275,13 +30299,13 @@
         <v>788</v>
       </c>
       <c r="E789" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="F789" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="G789" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H789" t="s">
         <v>4</v>
@@ -30304,13 +30328,13 @@
         <v>789</v>
       </c>
       <c r="E790" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="F790" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="G790" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H790" t="s">
         <v>4</v>
@@ -30333,13 +30357,13 @@
         <v>790</v>
       </c>
       <c r="E791" t="s">
-        <v>1483</v>
+        <v>1455</v>
       </c>
       <c r="F791" t="s">
-        <v>1484</v>
+        <v>1456</v>
       </c>
       <c r="G791" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H791" t="s">
         <v>4</v>
@@ -30368,7 +30392,7 @@
         <v>1486</v>
       </c>
       <c r="G792" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H792" t="s">
         <v>4</v>
@@ -30397,7 +30421,7 @@
         <v>1488</v>
       </c>
       <c r="G793" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H793" t="s">
         <v>4</v>
@@ -30426,7 +30450,7 @@
         <v>1490</v>
       </c>
       <c r="G794" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H794" t="s">
         <v>4</v>
@@ -30455,7 +30479,7 @@
         <v>1492</v>
       </c>
       <c r="G795" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H795" t="s">
         <v>4</v>
@@ -30484,7 +30508,7 @@
         <v>1494</v>
       </c>
       <c r="G796" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H796" t="s">
         <v>4</v>
@@ -30513,7 +30537,7 @@
         <v>1496</v>
       </c>
       <c r="G797" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H797" t="s">
         <v>4</v>
@@ -30571,7 +30595,7 @@
         <v>1500</v>
       </c>
       <c r="G799" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H799" t="s">
         <v>4</v>
@@ -30600,7 +30624,7 @@
         <v>1502</v>
       </c>
       <c r="G800" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H800" t="s">
         <v>4</v>
@@ -30629,7 +30653,7 @@
         <v>1504</v>
       </c>
       <c r="G801" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H801" t="s">
         <v>4</v>
@@ -30716,7 +30740,7 @@
         <v>1510</v>
       </c>
       <c r="G804" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H804" t="s">
         <v>4</v>
@@ -30745,7 +30769,7 @@
         <v>1512</v>
       </c>
       <c r="G805" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H805" t="s">
         <v>4</v>
@@ -30861,7 +30885,7 @@
         <v>1520</v>
       </c>
       <c r="G809" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H809" t="s">
         <v>4</v>
@@ -30890,7 +30914,7 @@
         <v>1522</v>
       </c>
       <c r="G810" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H810" t="s">
         <v>4</v>
@@ -30977,7 +31001,7 @@
         <v>1528</v>
       </c>
       <c r="G813" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H813" t="s">
         <v>4</v>
@@ -31006,7 +31030,7 @@
         <v>1530</v>
       </c>
       <c r="G814" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H814" t="s">
         <v>4</v>
@@ -31035,7 +31059,7 @@
         <v>1532</v>
       </c>
       <c r="G815" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H815" t="s">
         <v>4</v>
@@ -31064,7 +31088,7 @@
         <v>1534</v>
       </c>
       <c r="G816" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H816" t="s">
         <v>4</v>
@@ -31122,7 +31146,7 @@
         <v>1538</v>
       </c>
       <c r="G818" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H818" t="s">
         <v>4</v>
@@ -31151,7 +31175,7 @@
         <v>1540</v>
       </c>
       <c r="G819" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H819" t="s">
         <v>4</v>
@@ -31180,7 +31204,7 @@
         <v>1542</v>
       </c>
       <c r="G820" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H820" t="s">
         <v>4</v>
@@ -31296,7 +31320,7 @@
         <v>1550</v>
       </c>
       <c r="G824" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H824" t="s">
         <v>4</v>
@@ -31412,7 +31436,7 @@
         <v>1558</v>
       </c>
       <c r="G828" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H828" t="s">
         <v>4</v>
@@ -31528,7 +31552,7 @@
         <v>1566</v>
       </c>
       <c r="G832" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H832" t="s">
         <v>4</v>
@@ -31789,7 +31813,7 @@
         <v>1584</v>
       </c>
       <c r="G841" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H841" t="s">
         <v>4</v>
@@ -31905,7 +31929,7 @@
         <v>1592</v>
       </c>
       <c r="G845" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H845" t="s">
         <v>4</v>
@@ -32160,10 +32184,10 @@
         <v>853</v>
       </c>
       <c r="E854" t="s">
-        <v>895</v>
+        <v>1609</v>
       </c>
       <c r="F854" t="s">
-        <v>896</v>
+        <v>1610</v>
       </c>
       <c r="G854" t="n">
         <v>1</v>
@@ -32189,10 +32213,10 @@
         <v>854</v>
       </c>
       <c r="E855" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="F855" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="G855" t="n">
         <v>1</v>
@@ -32218,10 +32242,10 @@
         <v>855</v>
       </c>
       <c r="E856" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="F856" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="G856" t="n">
         <v>1</v>
@@ -32247,10 +32271,10 @@
         <v>856</v>
       </c>
       <c r="E857" t="s">
-        <v>1231</v>
+        <v>1615</v>
       </c>
       <c r="F857" t="s">
-        <v>1232</v>
+        <v>1616</v>
       </c>
       <c r="G857" t="n">
         <v>1</v>
@@ -32276,10 +32300,10 @@
         <v>857</v>
       </c>
       <c r="E858" t="s">
-        <v>1613</v>
+        <v>895</v>
       </c>
       <c r="F858" t="s">
-        <v>1614</v>
+        <v>896</v>
       </c>
       <c r="G858" t="n">
         <v>1</v>
@@ -32305,10 +32329,10 @@
         <v>858</v>
       </c>
       <c r="E859" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="F859" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="G859" t="n">
         <v>1</v>
@@ -32334,10 +32358,10 @@
         <v>859</v>
       </c>
       <c r="E860" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="F860" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="G860" t="n">
         <v>1</v>
@@ -32363,10 +32387,10 @@
         <v>860</v>
       </c>
       <c r="E861" t="s">
-        <v>1619</v>
+        <v>1239</v>
       </c>
       <c r="F861" t="s">
-        <v>1620</v>
+        <v>1240</v>
       </c>
       <c r="G861" t="n">
         <v>1</v>
@@ -32711,10 +32735,10 @@
         <v>872</v>
       </c>
       <c r="E873" t="s">
-        <v>1609</v>
+        <v>1643</v>
       </c>
       <c r="F873" t="s">
-        <v>1610</v>
+        <v>1644</v>
       </c>
       <c r="G873" t="n">
         <v>1</v>
@@ -32740,10 +32764,10 @@
         <v>873</v>
       </c>
       <c r="E874" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="F874" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="G874" t="n">
         <v>1</v>
@@ -32769,10 +32793,10 @@
         <v>874</v>
       </c>
       <c r="E875" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="F875" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="G875" t="n">
         <v>1</v>
@@ -32798,10 +32822,10 @@
         <v>875</v>
       </c>
       <c r="E876" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="F876" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="G876" t="n">
         <v>1</v>
@@ -32827,10 +32851,10 @@
         <v>876</v>
       </c>
       <c r="E877" t="s">
-        <v>97</v>
+        <v>1617</v>
       </c>
       <c r="F877" t="s">
-        <v>98</v>
+        <v>1618</v>
       </c>
       <c r="G877" t="n">
         <v>1</v>
@@ -32856,10 +32880,10 @@
         <v>877</v>
       </c>
       <c r="E878" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="F878" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="G878" t="n">
         <v>1</v>
@@ -32885,13 +32909,13 @@
         <v>878</v>
       </c>
       <c r="E879" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="F879" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="G879" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="H879" t="s">
         <v>4</v>
@@ -32914,10 +32938,10 @@
         <v>879</v>
       </c>
       <c r="E880" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="F880" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="G880" t="n">
         <v>1</v>
@@ -32943,10 +32967,10 @@
         <v>880</v>
       </c>
       <c r="E881" t="s">
-        <v>1655</v>
+        <v>97</v>
       </c>
       <c r="F881" t="s">
-        <v>1656</v>
+        <v>98</v>
       </c>
       <c r="G881" t="n">
         <v>1</v>
@@ -33007,7 +33031,7 @@
         <v>1660</v>
       </c>
       <c r="G883" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="H883" t="s">
         <v>4</v>
@@ -33123,7 +33147,7 @@
         <v>1668</v>
       </c>
       <c r="G887" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H887" t="s">
         <v>4</v>
@@ -33181,7 +33205,7 @@
         <v>1672</v>
       </c>
       <c r="G889" t="n">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="H889" t="s">
         <v>4</v>
@@ -33239,7 +33263,7 @@
         <v>1676</v>
       </c>
       <c r="G891" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H891" t="s">
         <v>4</v>
@@ -33262,10 +33286,10 @@
         <v>891</v>
       </c>
       <c r="E892" t="s">
-        <v>1245</v>
+        <v>1677</v>
       </c>
       <c r="F892" t="s">
-        <v>1246</v>
+        <v>1678</v>
       </c>
       <c r="G892" t="n">
         <v>1</v>
@@ -33291,13 +33315,13 @@
         <v>892</v>
       </c>
       <c r="E893" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="F893" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="G893" t="n">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="H893" t="s">
         <v>4</v>
@@ -33320,10 +33344,10 @@
         <v>893</v>
       </c>
       <c r="E894" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="F894" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="G894" t="n">
         <v>1</v>
@@ -33349,10 +33373,10 @@
         <v>894</v>
       </c>
       <c r="E895" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="F895" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="G895" t="n">
         <v>1</v>
@@ -33378,10 +33402,10 @@
         <v>895</v>
       </c>
       <c r="E896" t="s">
-        <v>1683</v>
+        <v>1253</v>
       </c>
       <c r="F896" t="s">
-        <v>1684</v>
+        <v>1254</v>
       </c>
       <c r="G896" t="n">
         <v>1</v>
@@ -33407,10 +33431,10 @@
         <v>896</v>
       </c>
       <c r="E897" t="s">
-        <v>1195</v>
+        <v>1685</v>
       </c>
       <c r="F897" t="s">
-        <v>1196</v>
+        <v>1686</v>
       </c>
       <c r="G897" t="n">
         <v>1</v>
@@ -33436,10 +33460,10 @@
         <v>897</v>
       </c>
       <c r="E898" t="s">
-        <v>89</v>
+        <v>1687</v>
       </c>
       <c r="F898" t="s">
-        <v>90</v>
+        <v>1688</v>
       </c>
       <c r="G898" t="n">
         <v>1</v>
@@ -33465,10 +33489,10 @@
         <v>898</v>
       </c>
       <c r="E899" t="s">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="F899" t="s">
-        <v>1686</v>
+        <v>1690</v>
       </c>
       <c r="G899" t="n">
         <v>1</v>
@@ -33494,10 +33518,10 @@
         <v>899</v>
       </c>
       <c r="E900" t="s">
-        <v>1687</v>
+        <v>1691</v>
       </c>
       <c r="F900" t="s">
-        <v>1688</v>
+        <v>1692</v>
       </c>
       <c r="G900" t="n">
         <v>1</v>
@@ -33523,10 +33547,10 @@
         <v>900</v>
       </c>
       <c r="E901" t="s">
-        <v>231</v>
+        <v>1203</v>
       </c>
       <c r="F901" t="s">
-        <v>232</v>
+        <v>1204</v>
       </c>
       <c r="G901" t="n">
         <v>1</v>
@@ -33552,10 +33576,10 @@
         <v>901</v>
       </c>
       <c r="E902" t="s">
-        <v>1689</v>
+        <v>89</v>
       </c>
       <c r="F902" t="s">
-        <v>1690</v>
+        <v>90</v>
       </c>
       <c r="G902" t="n">
         <v>1</v>
@@ -33581,13 +33605,13 @@
         <v>902</v>
       </c>
       <c r="E903" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="F903" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="G903" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H903" t="s">
         <v>4</v>
@@ -33610,13 +33634,13 @@
         <v>903</v>
       </c>
       <c r="E904" t="s">
-        <v>861</v>
+        <v>1695</v>
       </c>
       <c r="F904" t="s">
-        <v>862</v>
+        <v>1696</v>
       </c>
       <c r="G904" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H904" t="s">
         <v>4</v>
@@ -33639,10 +33663,10 @@
         <v>904</v>
       </c>
       <c r="E905" t="s">
-        <v>1693</v>
+        <v>231</v>
       </c>
       <c r="F905" t="s">
-        <v>1694</v>
+        <v>232</v>
       </c>
       <c r="G905" t="n">
         <v>1</v>
@@ -33668,10 +33692,10 @@
         <v>905</v>
       </c>
       <c r="E906" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="F906" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="G906" t="n">
         <v>1</v>
@@ -33697,13 +33721,13 @@
         <v>906</v>
       </c>
       <c r="E907" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="F907" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="G907" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H907" t="s">
         <v>4</v>
@@ -33726,13 +33750,13 @@
         <v>907</v>
       </c>
       <c r="E908" t="s">
-        <v>1699</v>
+        <v>861</v>
       </c>
       <c r="F908" t="s">
-        <v>1700</v>
+        <v>862</v>
       </c>
       <c r="G908" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H908" t="s">
         <v>4</v>
@@ -33848,7 +33872,7 @@
         <v>1708</v>
       </c>
       <c r="G912" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H912" t="s">
         <v>4</v>
@@ -33964,7 +33988,7 @@
         <v>1716</v>
       </c>
       <c r="G916" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H916" t="s">
         <v>4</v>
@@ -34074,13 +34098,13 @@
         <v>919</v>
       </c>
       <c r="E920" t="s">
-        <v>1199</v>
+        <v>1723</v>
       </c>
       <c r="F920" t="s">
-        <v>1200</v>
+        <v>1724</v>
       </c>
       <c r="G920" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H920" t="s">
         <v>4</v>
@@ -34103,13 +34127,13 @@
         <v>920</v>
       </c>
       <c r="E921" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="F921" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="G921" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H921" t="s">
         <v>4</v>
@@ -34132,10 +34156,10 @@
         <v>921</v>
       </c>
       <c r="E922" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="F922" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="G922" t="n">
         <v>1</v>
@@ -34161,10 +34185,10 @@
         <v>922</v>
       </c>
       <c r="E923" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="F923" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="G923" t="n">
         <v>1</v>
@@ -34190,13 +34214,13 @@
         <v>923</v>
       </c>
       <c r="E924" t="s">
-        <v>1729</v>
+        <v>1207</v>
       </c>
       <c r="F924" t="s">
-        <v>1730</v>
+        <v>1208</v>
       </c>
       <c r="G924" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H924" t="s">
         <v>4</v>
@@ -34225,7 +34249,7 @@
         <v>1732</v>
       </c>
       <c r="G925" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H925" t="s">
         <v>4</v>
@@ -34631,7 +34655,7 @@
         <v>1760</v>
       </c>
       <c r="G939" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H939" t="s">
         <v>4</v>
@@ -34747,7 +34771,7 @@
         <v>1768</v>
       </c>
       <c r="G943" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H943" t="s">
         <v>4</v>
@@ -34776,7 +34800,7 @@
         <v>1770</v>
       </c>
       <c r="G944" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H944" t="s">
         <v>4</v>
@@ -34886,13 +34910,13 @@
         <v>947</v>
       </c>
       <c r="E948" t="s">
-        <v>783</v>
+        <v>1777</v>
       </c>
       <c r="F948" t="s">
-        <v>784</v>
+        <v>1778</v>
       </c>
       <c r="G948" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H948" t="s">
         <v>4</v>
@@ -34915,10 +34939,10 @@
         <v>948</v>
       </c>
       <c r="E949" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="F949" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="G949" t="n">
         <v>1</v>
@@ -34944,10 +34968,10 @@
         <v>949</v>
       </c>
       <c r="E950" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="F950" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="G950" t="n">
         <v>1</v>
@@ -34973,10 +34997,10 @@
         <v>950</v>
       </c>
       <c r="E951" t="s">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="F951" t="s">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="G951" t="n">
         <v>1</v>
@@ -35002,10 +35026,10 @@
         <v>951</v>
       </c>
       <c r="E952" t="s">
-        <v>1783</v>
+        <v>783</v>
       </c>
       <c r="F952" t="s">
-        <v>1784</v>
+        <v>784</v>
       </c>
       <c r="G952" t="n">
         <v>1</v>
@@ -35037,7 +35061,7 @@
         <v>1786</v>
       </c>
       <c r="G953" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H953" t="s">
         <v>4</v>
@@ -35124,7 +35148,7 @@
         <v>1792</v>
       </c>
       <c r="G956" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H956" t="s">
         <v>4</v>
@@ -35153,7 +35177,7 @@
         <v>1794</v>
       </c>
       <c r="G957" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H957" t="s">
         <v>4</v>
@@ -35182,7 +35206,7 @@
         <v>1796</v>
       </c>
       <c r="G958" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H958" t="s">
         <v>4</v>
@@ -35240,7 +35264,7 @@
         <v>1800</v>
       </c>
       <c r="G960" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H960" t="s">
         <v>4</v>
@@ -35298,7 +35322,7 @@
         <v>1804</v>
       </c>
       <c r="G962" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H962" t="s">
         <v>4</v>
@@ -35356,7 +35380,7 @@
         <v>1808</v>
       </c>
       <c r="G964" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H964" t="s">
         <v>4</v>
@@ -35385,7 +35409,7 @@
         <v>1810</v>
       </c>
       <c r="G965" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H965" t="s">
         <v>4</v>
@@ -35414,7 +35438,7 @@
         <v>1812</v>
       </c>
       <c r="G966" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H966" t="s">
         <v>4</v>
@@ -35472,7 +35496,7 @@
         <v>1816</v>
       </c>
       <c r="G968" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H968" t="s">
         <v>4</v>
@@ -35501,7 +35525,7 @@
         <v>1818</v>
       </c>
       <c r="G969" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H969" t="s">
         <v>4</v>
@@ -35530,7 +35554,7 @@
         <v>1820</v>
       </c>
       <c r="G970" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H970" t="s">
         <v>4</v>
@@ -36516,7 +36540,7 @@
         <v>1888</v>
       </c>
       <c r="G1004" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1004" t="s">
         <v>4</v>
@@ -36632,7 +36656,7 @@
         <v>1896</v>
       </c>
       <c r="G1008" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1008" t="s">
         <v>4</v>
@@ -36748,7 +36772,7 @@
         <v>1904</v>
       </c>
       <c r="G1012" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1012" t="s">
         <v>4</v>
@@ -36777,7 +36801,7 @@
         <v>1906</v>
       </c>
       <c r="G1013" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1013" t="s">
         <v>4</v>
@@ -36864,7 +36888,7 @@
         <v>1912</v>
       </c>
       <c r="G1016" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1016" t="s">
         <v>4</v>
@@ -36893,7 +36917,7 @@
         <v>1914</v>
       </c>
       <c r="G1017" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1017" t="s">
         <v>4</v>
@@ -37061,10 +37085,10 @@
         <v>1022</v>
       </c>
       <c r="E1023" t="s">
-        <v>795</v>
+        <v>1925</v>
       </c>
       <c r="F1023" t="s">
-        <v>796</v>
+        <v>1926</v>
       </c>
       <c r="G1023" t="n">
         <v>1</v>
@@ -37090,10 +37114,10 @@
         <v>1023</v>
       </c>
       <c r="E1024" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="F1024" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="G1024" t="n">
         <v>1</v>
@@ -37119,10 +37143,10 @@
         <v>1024</v>
       </c>
       <c r="E1025" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="F1025" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="G1025" t="n">
         <v>1</v>
@@ -37148,13 +37172,13 @@
         <v>1025</v>
       </c>
       <c r="E1026" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="F1026" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="G1026" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1026" t="s">
         <v>4</v>
@@ -37177,13 +37201,13 @@
         <v>1026</v>
       </c>
       <c r="E1027" t="s">
-        <v>1931</v>
+        <v>795</v>
       </c>
       <c r="F1027" t="s">
-        <v>1932</v>
+        <v>796</v>
       </c>
       <c r="G1027" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H1027" t="s">
         <v>4</v>
@@ -37241,7 +37265,7 @@
         <v>1936</v>
       </c>
       <c r="G1029" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1029" t="s">
         <v>4</v>
@@ -37270,7 +37294,7 @@
         <v>1938</v>
       </c>
       <c r="G1030" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1030" t="s">
         <v>4</v>
@@ -37299,7 +37323,7 @@
         <v>1940</v>
       </c>
       <c r="G1031" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H1031" t="s">
         <v>4</v>
@@ -37357,7 +37381,7 @@
         <v>1944</v>
       </c>
       <c r="G1033" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1033" t="s">
         <v>4</v>
@@ -37386,7 +37410,7 @@
         <v>1946</v>
       </c>
       <c r="G1034" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1034" t="s">
         <v>4</v>
@@ -37473,7 +37497,7 @@
         <v>1952</v>
       </c>
       <c r="G1037" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1037" t="s">
         <v>4</v>
@@ -37589,7 +37613,7 @@
         <v>1960</v>
       </c>
       <c r="G1041" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1041" t="s">
         <v>4</v>
@@ -37618,7 +37642,7 @@
         <v>1962</v>
       </c>
       <c r="G1042" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1042" t="s">
         <v>4</v>
@@ -37647,7 +37671,7 @@
         <v>1964</v>
       </c>
       <c r="G1043" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H1043" t="s">
         <v>4</v>
@@ -37763,7 +37787,7 @@
         <v>1972</v>
       </c>
       <c r="G1047" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H1047" t="s">
         <v>4</v>
@@ -37792,7 +37816,7 @@
         <v>1974</v>
       </c>
       <c r="G1048" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1048" t="s">
         <v>4</v>
@@ -37821,7 +37845,7 @@
         <v>1976</v>
       </c>
       <c r="G1049" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1049" t="s">
         <v>4</v>
@@ -37908,7 +37932,7 @@
         <v>1982</v>
       </c>
       <c r="G1052" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1052" t="s">
         <v>4</v>
@@ -37966,7 +37990,7 @@
         <v>1986</v>
       </c>
       <c r="G1054" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1054" t="s">
         <v>4</v>
@@ -38018,10 +38042,10 @@
         <v>1055</v>
       </c>
       <c r="E1056" t="s">
-        <v>1209</v>
+        <v>1989</v>
       </c>
       <c r="F1056" t="s">
-        <v>1210</v>
+        <v>1990</v>
       </c>
       <c r="G1056" t="n">
         <v>1</v>
@@ -38047,10 +38071,10 @@
         <v>1056</v>
       </c>
       <c r="E1057" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="F1057" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G1057" t="n">
         <v>1</v>
@@ -38076,13 +38100,13 @@
         <v>1057</v>
       </c>
       <c r="E1058" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="F1058" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G1058" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1058" t="s">
         <v>4</v>
@@ -38105,10 +38129,10 @@
         <v>1058</v>
       </c>
       <c r="E1059" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="F1059" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="G1059" t="n">
         <v>1</v>
@@ -38134,10 +38158,10 @@
         <v>1059</v>
       </c>
       <c r="E1060" t="s">
-        <v>1995</v>
+        <v>1217</v>
       </c>
       <c r="F1060" t="s">
-        <v>1996</v>
+        <v>1218</v>
       </c>
       <c r="G1060" t="n">
         <v>1</v>
@@ -38256,7 +38280,7 @@
         <v>2004</v>
       </c>
       <c r="G1064" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1064" t="s">
         <v>4</v>
@@ -38343,7 +38367,7 @@
         <v>2010</v>
       </c>
       <c r="G1067" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H1067" t="s">
         <v>4</v>
@@ -38372,7 +38396,7 @@
         <v>2012</v>
       </c>
       <c r="G1068" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H1068" t="s">
         <v>4</v>
@@ -38430,7 +38454,7 @@
         <v>2016</v>
       </c>
       <c r="G1070" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1070" t="s">
         <v>4</v>
@@ -38459,7 +38483,7 @@
         <v>2018</v>
       </c>
       <c r="G1071" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="H1071" t="s">
         <v>4</v>
@@ -38488,7 +38512,7 @@
         <v>2020</v>
       </c>
       <c r="G1072" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H1072" t="s">
         <v>4</v>
@@ -38517,7 +38541,7 @@
         <v>2022</v>
       </c>
       <c r="G1073" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H1073" t="s">
         <v>4</v>
@@ -38546,7 +38570,7 @@
         <v>2024</v>
       </c>
       <c r="G1074" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1074" t="s">
         <v>4</v>
@@ -38633,7 +38657,7 @@
         <v>2030</v>
       </c>
       <c r="G1077" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1077" t="s">
         <v>4</v>
@@ -38720,7 +38744,7 @@
         <v>2036</v>
       </c>
       <c r="G1080" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1080" t="s">
         <v>4</v>
@@ -38836,7 +38860,7 @@
         <v>2044</v>
       </c>
       <c r="G1084" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1084" t="s">
         <v>4</v>
@@ -38865,7 +38889,7 @@
         <v>2046</v>
       </c>
       <c r="G1085" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H1085" t="s">
         <v>4</v>
@@ -38981,7 +39005,7 @@
         <v>2054</v>
       </c>
       <c r="G1089" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1089" t="s">
         <v>4</v>
@@ -39242,7 +39266,7 @@
         <v>2072</v>
       </c>
       <c r="G1098" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1098" t="s">
         <v>4</v>
@@ -39358,7 +39382,7 @@
         <v>2080</v>
       </c>
       <c r="G1102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1102" t="s">
         <v>4</v>
@@ -39387,7 +39411,7 @@
         <v>2082</v>
       </c>
       <c r="G1103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1103" t="s">
         <v>4</v>
@@ -39503,7 +39527,7 @@
         <v>2090</v>
       </c>
       <c r="G1107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1107" t="s">
         <v>4</v>
@@ -39619,7 +39643,7 @@
         <v>2098</v>
       </c>
       <c r="G1111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1111" t="s">
         <v>4</v>
@@ -39677,7 +39701,7 @@
         <v>2102</v>
       </c>
       <c r="G1113" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H1113" t="s">
         <v>4</v>
@@ -39706,7 +39730,7 @@
         <v>2104</v>
       </c>
       <c r="G1114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1114" t="s">
         <v>4</v>
@@ -39735,7 +39759,7 @@
         <v>2106</v>
       </c>
       <c r="G1115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1115" t="s">
         <v>4</v>
@@ -39793,7 +39817,7 @@
         <v>2110</v>
       </c>
       <c r="G1117" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1117" t="s">
         <v>4</v>
@@ -39851,7 +39875,7 @@
         <v>2114</v>
       </c>
       <c r="G1119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1119" t="s">
         <v>4</v>
@@ -39909,7 +39933,7 @@
         <v>2118</v>
       </c>
       <c r="G1121" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1121" t="s">
         <v>4</v>
@@ -39938,7 +39962,7 @@
         <v>2120</v>
       </c>
       <c r="G1122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1122" t="s">
         <v>4</v>
@@ -39996,7 +40020,7 @@
         <v>2124</v>
       </c>
       <c r="G1124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1124" t="s">
         <v>4</v>
@@ -40025,7 +40049,7 @@
         <v>2126</v>
       </c>
       <c r="G1125" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1125" t="s">
         <v>4</v>
@@ -40054,7 +40078,7 @@
         <v>2128</v>
       </c>
       <c r="G1126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1126" t="s">
         <v>4</v>
@@ -40083,7 +40107,7 @@
         <v>2130</v>
       </c>
       <c r="G1127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1127" t="s">
         <v>4</v>
@@ -40112,7 +40136,7 @@
         <v>2132</v>
       </c>
       <c r="G1128" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1128" t="s">
         <v>4</v>
@@ -40199,7 +40223,7 @@
         <v>2138</v>
       </c>
       <c r="G1131" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H1131" t="s">
         <v>4</v>
@@ -40315,7 +40339,7 @@
         <v>2146</v>
       </c>
       <c r="G1135" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H1135" t="s">
         <v>4</v>
@@ -40344,7 +40368,7 @@
         <v>2148</v>
       </c>
       <c r="G1136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1136" t="s">
         <v>4</v>
@@ -40402,7 +40426,7 @@
         <v>2152</v>
       </c>
       <c r="G1138" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1138" t="s">
         <v>4</v>
@@ -40431,7 +40455,7 @@
         <v>2154</v>
       </c>
       <c r="G1139" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1139" t="s">
         <v>4</v>
@@ -40460,7 +40484,7 @@
         <v>2156</v>
       </c>
       <c r="G1140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1140" t="s">
         <v>4</v>
@@ -40518,7 +40542,7 @@
         <v>2160</v>
       </c>
       <c r="G1142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1142" t="s">
         <v>4</v>
@@ -40547,7 +40571,7 @@
         <v>2162</v>
       </c>
       <c r="G1143" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1143" t="s">
         <v>4</v>
@@ -40576,7 +40600,7 @@
         <v>2164</v>
       </c>
       <c r="G1144" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1144" t="s">
         <v>4</v>
@@ -40663,7 +40687,7 @@
         <v>2170</v>
       </c>
       <c r="G1147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1147" t="s">
         <v>4</v>
@@ -40692,7 +40716,7 @@
         <v>2172</v>
       </c>
       <c r="G1148" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1148" t="s">
         <v>4</v>
@@ -40779,7 +40803,7 @@
         <v>2178</v>
       </c>
       <c r="G1151" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1151" t="s">
         <v>4</v>
@@ -40895,7 +40919,7 @@
         <v>2186</v>
       </c>
       <c r="G1155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1155" t="s">
         <v>4</v>
@@ -41005,10 +41029,10 @@
         <v>1158</v>
       </c>
       <c r="E1159" t="s">
-        <v>77</v>
+        <v>2193</v>
       </c>
       <c r="F1159" t="s">
-        <v>78</v>
+        <v>2194</v>
       </c>
       <c r="G1159" t="n">
         <v>2</v>
@@ -41034,13 +41058,13 @@
         <v>1159</v>
       </c>
       <c r="E1160" t="s">
-        <v>121</v>
+        <v>2195</v>
       </c>
       <c r="F1160" t="s">
-        <v>122</v>
+        <v>2196</v>
       </c>
       <c r="G1160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1160" t="s">
         <v>4</v>
@@ -41063,13 +41087,13 @@
         <v>1160</v>
       </c>
       <c r="E1161" t="s">
-        <v>2193</v>
+        <v>2197</v>
       </c>
       <c r="F1161" t="s">
-        <v>2194</v>
+        <v>2198</v>
       </c>
       <c r="G1161" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1161" t="s">
         <v>4</v>
@@ -41092,13 +41116,13 @@
         <v>1161</v>
       </c>
       <c r="E1162" t="s">
-        <v>2195</v>
+        <v>2199</v>
       </c>
       <c r="F1162" t="s">
-        <v>2196</v>
+        <v>2200</v>
       </c>
       <c r="G1162" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H1162" t="s">
         <v>4</v>
@@ -41121,13 +41145,13 @@
         <v>1162</v>
       </c>
       <c r="E1163" t="s">
-        <v>2197</v>
+        <v>77</v>
       </c>
       <c r="F1163" t="s">
-        <v>2198</v>
+        <v>78</v>
       </c>
       <c r="G1163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1163" t="s">
         <v>4</v>
@@ -41150,13 +41174,13 @@
         <v>1163</v>
       </c>
       <c r="E1164" t="s">
-        <v>2199</v>
+        <v>121</v>
       </c>
       <c r="F1164" t="s">
-        <v>2200</v>
+        <v>122</v>
       </c>
       <c r="G1164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1164" t="s">
         <v>4</v>
@@ -41185,7 +41209,7 @@
         <v>2202</v>
       </c>
       <c r="G1165" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1165" t="s">
         <v>4</v>
@@ -41214,7 +41238,7 @@
         <v>2204</v>
       </c>
       <c r="G1166" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1166" t="s">
         <v>4</v>
@@ -41237,10 +41261,10 @@
         <v>1166</v>
       </c>
       <c r="E1167" t="s">
-        <v>137</v>
+        <v>2205</v>
       </c>
       <c r="F1167" t="s">
-        <v>138</v>
+        <v>2206</v>
       </c>
       <c r="G1167" t="n">
         <v>1</v>
@@ -41266,10 +41290,10 @@
         <v>1167</v>
       </c>
       <c r="E1168" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="F1168" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="G1168" t="n">
         <v>1</v>
@@ -41295,10 +41319,10 @@
         <v>1168</v>
       </c>
       <c r="E1169" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="F1169" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="G1169" t="n">
         <v>1</v>
@@ -41324,10 +41348,10 @@
         <v>1169</v>
       </c>
       <c r="E1170" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="F1170" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="G1170" t="n">
         <v>1</v>
@@ -41353,10 +41377,10 @@
         <v>1170</v>
       </c>
       <c r="E1171" t="s">
-        <v>437</v>
+        <v>137</v>
       </c>
       <c r="F1171" t="s">
-        <v>438</v>
+        <v>138</v>
       </c>
       <c r="G1171" t="n">
         <v>1</v>
@@ -41382,10 +41406,10 @@
         <v>1171</v>
       </c>
       <c r="E1172" t="s">
-        <v>603</v>
+        <v>2213</v>
       </c>
       <c r="F1172" t="s">
-        <v>604</v>
+        <v>2214</v>
       </c>
       <c r="G1172" t="n">
         <v>1</v>
@@ -41411,10 +41435,10 @@
         <v>1172</v>
       </c>
       <c r="E1173" t="s">
-        <v>2211</v>
+        <v>2215</v>
       </c>
       <c r="F1173" t="s">
-        <v>2212</v>
+        <v>2216</v>
       </c>
       <c r="G1173" t="n">
         <v>1</v>
@@ -41440,13 +41464,13 @@
         <v>1173</v>
       </c>
       <c r="E1174" t="s">
-        <v>1207</v>
+        <v>2217</v>
       </c>
       <c r="F1174" t="s">
-        <v>1208</v>
+        <v>2218</v>
       </c>
       <c r="G1174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1174" t="s">
         <v>4</v>
@@ -41469,13 +41493,13 @@
         <v>1174</v>
       </c>
       <c r="E1175" t="s">
-        <v>2213</v>
+        <v>437</v>
       </c>
       <c r="F1175" t="s">
-        <v>2214</v>
+        <v>438</v>
       </c>
       <c r="G1175" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="H1175" t="s">
         <v>4</v>
@@ -41498,13 +41522,13 @@
         <v>1175</v>
       </c>
       <c r="E1176" t="s">
-        <v>2215</v>
+        <v>603</v>
       </c>
       <c r="F1176" t="s">
-        <v>2216</v>
+        <v>604</v>
       </c>
       <c r="G1176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1176" t="s">
         <v>4</v>
@@ -41527,13 +41551,13 @@
         <v>1176</v>
       </c>
       <c r="E1177" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="F1177" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="G1177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1177" t="s">
         <v>4</v>
@@ -41556,13 +41580,13 @@
         <v>1177</v>
       </c>
       <c r="E1178" t="s">
-        <v>2219</v>
+        <v>1215</v>
       </c>
       <c r="F1178" t="s">
-        <v>2220</v>
+        <v>1216</v>
       </c>
       <c r="G1178" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1178" t="s">
         <v>4</v>
@@ -41591,7 +41615,7 @@
         <v>2222</v>
       </c>
       <c r="G1179" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="H1179" t="s">
         <v>4</v>
@@ -41678,7 +41702,7 @@
         <v>2228</v>
       </c>
       <c r="G1182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1182" t="s">
         <v>4</v>
@@ -41701,10 +41725,10 @@
         <v>1182</v>
       </c>
       <c r="E1183" t="s">
-        <v>427</v>
+        <v>2229</v>
       </c>
       <c r="F1183" t="s">
-        <v>428</v>
+        <v>2230</v>
       </c>
       <c r="G1183" t="n">
         <v>1</v>
@@ -41730,13 +41754,13 @@
         <v>1183</v>
       </c>
       <c r="E1184" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="F1184" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="G1184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1184" t="s">
         <v>4</v>
@@ -41759,13 +41783,13 @@
         <v>1184</v>
       </c>
       <c r="E1185" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="F1185" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="G1185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1185" t="s">
         <v>4</v>
@@ -41788,10 +41812,10 @@
         <v>1185</v>
       </c>
       <c r="E1186" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="F1186" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="G1186" t="n">
         <v>1</v>
@@ -41817,13 +41841,13 @@
         <v>1186</v>
       </c>
       <c r="E1187" t="s">
-        <v>2235</v>
+        <v>427</v>
       </c>
       <c r="F1187" t="s">
-        <v>2236</v>
+        <v>428</v>
       </c>
       <c r="G1187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1187" t="s">
         <v>4</v>
@@ -41939,7 +41963,7 @@
         <v>2244</v>
       </c>
       <c r="G1191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1191" t="s">
         <v>4</v>
@@ -42229,7 +42253,7 @@
         <v>2264</v>
       </c>
       <c r="G1201" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1201" t="s">
         <v>4</v>
@@ -42252,10 +42276,10 @@
         <v>1201</v>
       </c>
       <c r="E1202" t="s">
-        <v>1237</v>
+        <v>2265</v>
       </c>
       <c r="F1202" t="s">
-        <v>1238</v>
+        <v>2266</v>
       </c>
       <c r="G1202" t="n">
         <v>1</v>
@@ -42281,13 +42305,13 @@
         <v>1202</v>
       </c>
       <c r="E1203" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="F1203" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="G1203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1203" t="s">
         <v>4</v>
@@ -42310,10 +42334,10 @@
         <v>1203</v>
       </c>
       <c r="E1204" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="F1204" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="G1204" t="n">
         <v>1</v>
@@ -42339,13 +42363,13 @@
         <v>1204</v>
       </c>
       <c r="E1205" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="F1205" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="G1205" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1205" t="s">
         <v>4</v>
@@ -42368,10 +42392,10 @@
         <v>1205</v>
       </c>
       <c r="E1206" t="s">
-        <v>2271</v>
+        <v>1245</v>
       </c>
       <c r="F1206" t="s">
-        <v>2272</v>
+        <v>1246</v>
       </c>
       <c r="G1206" t="n">
         <v>1</v>
@@ -42403,7 +42427,7 @@
         <v>2274</v>
       </c>
       <c r="G1207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1207" t="s">
         <v>4</v>
@@ -42461,7 +42485,7 @@
         <v>2278</v>
       </c>
       <c r="G1209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1209" t="s">
         <v>4</v>
@@ -42490,7 +42514,7 @@
         <v>2280</v>
       </c>
       <c r="G1210" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1210" t="s">
         <v>4</v>
@@ -42548,7 +42572,7 @@
         <v>2284</v>
       </c>
       <c r="G1212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1212" t="s">
         <v>4</v>
@@ -42577,7 +42601,7 @@
         <v>2286</v>
       </c>
       <c r="G1213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1213" t="s">
         <v>4</v>
@@ -42606,7 +42630,7 @@
         <v>2288</v>
       </c>
       <c r="G1214" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1214" t="s">
         <v>4</v>
@@ -42629,10 +42653,10 @@
         <v>1214</v>
       </c>
       <c r="E1215" t="s">
-        <v>1033</v>
+        <v>2289</v>
       </c>
       <c r="F1215" t="s">
-        <v>1034</v>
+        <v>2290</v>
       </c>
       <c r="G1215" t="n">
         <v>1</v>
@@ -42658,13 +42682,13 @@
         <v>1215</v>
       </c>
       <c r="E1216" t="s">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="F1216" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="G1216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1216" t="s">
         <v>4</v>
@@ -42687,10 +42711,10 @@
         <v>1216</v>
       </c>
       <c r="E1217" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="F1217" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="G1217" t="n">
         <v>1</v>
@@ -42716,10 +42740,10 @@
         <v>1217</v>
       </c>
       <c r="E1218" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="F1218" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c r="G1218" t="n">
         <v>1</v>
@@ -42745,10 +42769,10 @@
         <v>1218</v>
       </c>
       <c r="E1219" t="s">
-        <v>1239</v>
+        <v>1039</v>
       </c>
       <c r="F1219" t="s">
-        <v>1240</v>
+        <v>1040</v>
       </c>
       <c r="G1219" t="n">
         <v>1</v>
@@ -42774,10 +42798,10 @@
         <v>1219</v>
       </c>
       <c r="E1220" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c r="F1220" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="G1220" t="n">
         <v>1</v>
@@ -42803,10 +42827,10 @@
         <v>1220</v>
       </c>
       <c r="E1221" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="F1221" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="G1221" t="n">
         <v>1</v>
@@ -42832,10 +42856,10 @@
         <v>1221</v>
       </c>
       <c r="E1222" t="s">
-        <v>2299</v>
+        <v>2301</v>
       </c>
       <c r="F1222" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="G1222" t="n">
         <v>1</v>
@@ -42861,10 +42885,10 @@
         <v>1222</v>
       </c>
       <c r="E1223" t="s">
-        <v>2301</v>
+        <v>1247</v>
       </c>
       <c r="F1223" t="s">
-        <v>2302</v>
+        <v>1248</v>
       </c>
       <c r="G1223" t="n">
         <v>1</v>
@@ -43186,7 +43210,7 @@
         <v>2324</v>
       </c>
       <c r="G1234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1234" t="s">
         <v>4</v>
@@ -43302,7 +43326,7 @@
         <v>2332</v>
       </c>
       <c r="G1238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1238" t="s">
         <v>4</v>
@@ -43418,7 +43442,7 @@
         <v>2340</v>
       </c>
       <c r="G1242" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1242" t="s">
         <v>4</v>
@@ -43511,6 +43535,122 @@
         <v>4</v>
       </c>
       <c r="I1245" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:9">
+      <c r="A1246" s="1" t="n">
+        <v>1244</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>1245</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>2347</v>
+      </c>
+      <c r="F1246" t="s">
+        <v>2348</v>
+      </c>
+      <c r="G1246" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1246" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:9">
+      <c r="A1247" s="1" t="n">
+        <v>1245</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>1246</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>2349</v>
+      </c>
+      <c r="F1247" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G1247" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1247" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:9">
+      <c r="A1248" s="1" t="n">
+        <v>1246</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>1247</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>2351</v>
+      </c>
+      <c r="F1248" t="s">
+        <v>2352</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1248" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:9">
+      <c r="A1249" s="1" t="n">
+        <v>1247</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>1248</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F1249" t="s">
+        <v>2354</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1249" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1249" t="n">
         <v>3</v>
       </c>
     </row>
